--- a/Prototipo/BI/Cubo de vendas.xlsx
+++ b/Prototipo/BI/Cubo de vendas.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15255" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="1" r:id="rId1"/>
     <sheet name="Grafico" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -27,7 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>14,642x5 - 303,58x4 + 2350,6x3 - 8312x2 + 12901x - 6315
+R² = 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -172,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -183,6 +192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,9 +212,7 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -229,33 +239,33 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1584106662574518E-2"/>
-          <c:y val="0.12897339221610216"/>
-          <c:w val="0.67387525296189776"/>
+          <c:x val="7.1584106662574504E-2"/>
+          <c:y val="0.12897339221610218"/>
+          <c:w val="0.6738752529618981"/>
           <c:h val="0.64886297978410834"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:marker val="1"/>
-        <c:axId val="97154176"/>
-        <c:axId val="103522304"/>
+        <c:axId val="90916736"/>
+        <c:axId val="90918272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97154176"/>
+        <c:axId val="90916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103522304"/>
+        <c:crossAx val="90918272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103522304"/>
+        <c:axId val="90918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,7 +273,118 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97154176"/>
+        <c:crossAx val="90916736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11265507436570428"/>
+          <c:y val="4.2295313085864268E-2"/>
+          <c:w val="0.54891426071741034"/>
+          <c:h val="0.69064746906636676"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6461067366579176E-3"/>
+                  <c:y val="0.31254503187101612"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.16899999999441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73840896"/>
+        <c:axId val="73945856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73840896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73945856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73945856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73840896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -276,7 +397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -300,6 +421,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -354,7 +510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Cubo de vendas" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Cubo de vendas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotHierarchies count="12">
     <pivotHierarchy/>
@@ -659,9 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -771,6 +928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -780,4 +938,97 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan3"/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> 14.667*7^5 - 304*7^4 + 2353.3*7^3 - 8320*7^2 + 12912*7 - 6320</f>
+        <v>170.16899999999441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>